--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\O360-AI-master\O360-AI\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106FE95-3BA0-4044-8211-362BB913F931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC59F20-B8A5-4534-B455-77DFCD53DA73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="6" activeTab="8" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="6" activeTab="7" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSheetModule" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="141">
   <si>
     <t>Run</t>
   </si>
@@ -287,9 +287,6 @@
     <t>ProjectName2</t>
   </si>
   <si>
-    <t>TC_CustomerSearchModule</t>
-  </si>
-  <si>
     <t>qwerty</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>invalidCustId2</t>
   </si>
   <si>
-    <t>TC_CustomerRegisterModule</t>
-  </si>
-  <si>
     <t>custName</t>
   </si>
   <si>
@@ -374,27 +368,106 @@
     <t>houseNameAlphanumeric</t>
   </si>
   <si>
-    <t xml:space="preserve"> BLOCK 01</t>
-  </si>
-  <si>
     <t>houseNameNumeric</t>
   </si>
   <si>
-    <t>houseName</t>
-  </si>
-  <si>
-    <t>KIZHAKUMPURAM</t>
+    <t>Customer Search Module</t>
+  </si>
+  <si>
+    <t>Customer Register Module</t>
+  </si>
+  <si>
+    <t>houseNameAlphabet</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>invalidName</t>
+  </si>
+  <si>
+    <t>validLastName</t>
+  </si>
+  <si>
+    <t>A1S2H3</t>
+  </si>
+  <si>
+    <t>numericLastName</t>
+  </si>
+  <si>
+    <t>alphanumericLastName</t>
+  </si>
+  <si>
+    <t>specialCharacterLastName</t>
+  </si>
+  <si>
+    <t>!@#$%</t>
+  </si>
+  <si>
+    <t>alphanumericPanNum</t>
+  </si>
+  <si>
+    <t>docNum</t>
+  </si>
+  <si>
+    <t>nameSpecialChar</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*</t>
+  </si>
+  <si>
+    <t>Customer Freezed</t>
+  </si>
+  <si>
+    <t>freezeAlphabetComment</t>
+  </si>
+  <si>
+    <t>freezeAlphanumericComment</t>
+  </si>
+  <si>
+    <t>1a2v3g4h</t>
+  </si>
+  <si>
+    <t>freezeNumericComment</t>
+  </si>
+  <si>
+    <t>inactiveCustomer</t>
+  </si>
+  <si>
+    <t>freezeFutureDate</t>
+  </si>
+  <si>
+    <t>authorizedCustomer</t>
+  </si>
+  <si>
+    <t>custIDAttachments</t>
+  </si>
+  <si>
+    <t>4A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ODAMPARA HOUSE </t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>validCustId2</t>
+  </si>
+  <si>
+    <t>VFRUJ1234U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="000000000000"/>
     <numFmt numFmtId="165" formatCode="0000000000000"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +493,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -522,36 +601,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -559,6 +614,45 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1790,164 +1884,292 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43876BD-E772-4993-8A82-594262F04F89}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="25.140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="37" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="30" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="30" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" style="30"/>
+    <col min="24" max="24" width="22.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" style="30" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" style="30" customWidth="1"/>
+    <col min="29" max="29" width="24.28515625" style="30" customWidth="1"/>
+    <col min="30" max="30" width="27.5703125" style="30" customWidth="1"/>
+    <col min="31" max="31" width="24.140625" style="30" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.5703125" style="30" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" style="30" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" style="30" customWidth="1"/>
+    <col min="36" max="16384" width="17.28515625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:34" s="27" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="E2" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="H2" s="30">
+        <v>98765432</v>
+      </c>
+      <c r="I2" s="30">
+        <v>888999000</v>
+      </c>
+      <c r="J2" s="30">
+        <v>99900088801</v>
+      </c>
+      <c r="K2" s="22">
+        <v>9846968244</v>
+      </c>
+      <c r="L2" s="33">
+        <v>1234567890</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
+      <c r="O2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="30">
+        <v>252522</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="35">
+        <v>102000015879</v>
+      </c>
+      <c r="U2" s="35">
+        <v>102000016383</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" s="36">
+        <v>12345</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>12222</v>
+      </c>
+      <c r="AB2" s="38">
+        <v>146099</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE2" s="22">
+        <v>12345</v>
+      </c>
+      <c r="AF2" s="26">
+        <v>102000007421</v>
+      </c>
+      <c r="AG2" s="26">
+        <v>102000016378</v>
+      </c>
+      <c r="AH2" s="26">
+        <v>103000016369</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="3">
-        <v>98765432</v>
-      </c>
-      <c r="I2" s="3">
-        <v>888999000</v>
-      </c>
-      <c r="J2" s="3">
-        <v>99900088801</v>
-      </c>
-      <c r="K2" s="12">
-        <v>9846968244</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH3" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{D0E94D23-5A52-4AEE-B35B-D5A75550EC1B}"/>
+    <hyperlink ref="W2" r:id="rId2" display="!@#$%^" xr:uid="{76E94768-A019-42D0-9CF6-3514C1339D1A}"/>
+    <hyperlink ref="Y2" r:id="rId3" xr:uid="{94D4DA94-2909-4E83-AD4C-269FA28AA3FB}"/>
+    <hyperlink ref="P2" r:id="rId4" xr:uid="{A8FB5BF9-CE00-4C79-A53B-08C97A572F60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0E4354-FC05-4BBC-B6A0-D3AD380E4808}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="20.85546875" style="31"/>
-    <col min="10" max="10" width="13.28515625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="31"/>
-    <col min="12" max="12" width="26.140625" style="31" customWidth="1"/>
-    <col min="13" max="16384" width="20.85546875" style="31"/>
+    <col min="1" max="9" width="20.85546875" style="23"/>
+    <col min="10" max="10" width="13.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="23"/>
+    <col min="12" max="12" width="26.140625" style="23" customWidth="1"/>
+    <col min="13" max="16384" width="20.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -1955,84 +2177,66 @@
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>87</v>
-      </c>
       <c r="E1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="G1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>108</v>
-      </c>
       <c r="K1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>93</v>
       </c>
       <c r="G2" s="3">
         <v>10300001480</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="25">
         <v>1030000148060</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="24">
         <v>102000015729</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="3">
-        <v>123456</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
